--- a/Analisis/Temporizador/TemporizadorSinInterrupcionesASM.xlsx
+++ b/Analisis/Temporizador/TemporizadorSinInterrupcionesASM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Schinzii\Desktop\UVG\Semestre 10\Design 2\AVR_vs_PIC\Analisis\Temporizador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8EE6E7-FA6F-47F6-9F1F-22DD9CF273EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7871F1DD-A2DE-45BC-B287-D4845263F130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{1CDCDDEF-6B39-4217-A858-53EB810ACCBE}"/>
   </bookViews>
@@ -18253,7 +18253,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2038350" y="3048000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:ext cx="4629150" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18368,7 +18368,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8953500" y="3048000"/>
+              <a:off x="9115425" y="3048000"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -49294,8 +49294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95059EC-D0AC-49A5-9AD2-A5FCAE21BF60}">
   <dimension ref="A1:S1207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33:S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49304,7 +49304,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
